--- a/magicbricks/magicbricks/test03.xlsx
+++ b/magicbricks/magicbricks/test03.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="615" windowWidth="28455" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>['for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inShalimar,Vijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inBelmont Park,Vijay Nagar', 'for rent inShalimar,Vijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rentVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar']</t>
+  </si>
+  <si>
+    <t>['18,000', '₹18,000', '12,000', '₹12,000', '15,000', '₹15,000', '4,200', '₹4,200', '18,000', '₹18,000', '7,500', '₹7,500', '8,500', '₹8,500', '14,000', '₹14,000', '14,000', '₹14,000', '90,000', '₹90,000', '16,000', '₹16,000', '9,000', '₹9,000', '10,000', '₹10,000', '12,500', '₹12,500', '32,000', '₹32,000', '30,000', '₹30,000', '13,500', '₹13,500', '32,000', '₹32,000', '55,000', '₹55,000', '18,000', '₹18,000', '20,000', '₹20,000', '20,000', '₹20,000', '11,000', '₹11,000', '18,000', '₹18,000', '8,500', '₹8,500', '8,000', '₹8,000', '12,000', '₹12,000', '17,000', '₹17,000', '14,000', '₹14,000', '8,000', '₹8,000']</t>
+  </si>
+  <si>
+    <t>['900 sqft', '1100 sqft', '900 sqft', '1000 sqft', '7500 sqft', '1200 sqft', '1116 sqft', '2200 sqft', '2500 sqft', '1250 sqft', '1788 sqft', '3000 sqft', '1200 sqft', '900 sqft', '1600 sqft', '1080 sqft']</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +69,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +88,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,54 +385,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inShalimar,Vijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inBelmont Park,Vijay Nagar', 'for rent inShalimar,Vijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rentVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar', 'for rent inVijay Nagar']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['18,000', '₹18,000', '12,000', '₹12,000', '15,000', '₹15,000', '4,200', '₹4,200', '18,000', '₹18,000', '7,500', '₹7,500', '8,500', '₹8,500', '14,000', '₹14,000', '14,000', '₹14,000', '90,000', '₹90,000', '16,000', '₹16,000', '9,000', '₹9,000', '10,000', '₹10,000', '12,500', '₹12,500', '32,000', '₹32,000', '30,000', '₹30,000', '13,500', '₹13,500', '32,000', '₹32,000', '55,000', '₹55,000', '18,000', '₹18,000', '20,000', '₹20,000', '20,000', '₹20,000', '11,000', '₹11,000', '18,000', '₹18,000', '8,500', '₹8,500', '8,000', '₹8,000', '12,000', '₹12,000', '17,000', '₹17,000', '14,000', '₹14,000', '8,000', '₹8,000']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['900 sqft', '1100 sqft', '900 sqft', '1000 sqft', '7500 sqft', '1200 sqft', '1116 sqft', '2200 sqft', '2500 sqft', '1250 sqft', '1788 sqft', '3000 sqft', '1200 sqft', '900 sqft', '1600 sqft', '1080 sqft']</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
